--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43009,6 +43009,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>678900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43044,6 +43044,41 @@
         <v>678900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>295000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43079,6 +43079,41 @@
         <v>295000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>137300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43114,6 +43114,41 @@
         <v>137300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>132000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43149,6 +43149,41 @@
         <v>132000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>660000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43184,6 +43184,41 @@
         <v>660000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>525000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43219,6 +43219,41 @@
         <v>525000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2080000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43254,6 +43254,41 @@
         <v>2080000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>280000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43289,6 +43289,41 @@
         <v>280000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2110100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43324,6 +43324,41 @@
         <v>2110100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2564600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43359,6 +43359,41 @@
         <v>2564600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>410800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43394,6 +43394,41 @@
         <v>410800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1230000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43429,6 +43429,76 @@
         <v>1230000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8005000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43499,6 +43499,76 @@
         <v>8005000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>8600000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>261900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43569,6 +43569,41 @@
         <v>261900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43604,6 +43604,41 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1605000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43639,6 +43639,41 @@
         <v>1605000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43674,6 +43674,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>33137900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43709,6 +43709,76 @@
         <v>33137900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>5947000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1187000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43779,6 +43779,41 @@
         <v>1187000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1117900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43814,6 +43814,41 @@
         <v>1117900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>706200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82804,6 +82804,41 @@
         <v>706200</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>596900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2355"/>
+  <dimension ref="A1:I2356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82839,6 +82839,41 @@
         <v>596900</v>
       </c>
     </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2356"/>
+  <dimension ref="A1:I2357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82874,6 +82874,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>970000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2357"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82909,6 +82909,41 @@
         <v>970000</v>
       </c>
     </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>964000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82944,6 +82944,41 @@
         <v>964000</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>1580000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2359"/>
+  <dimension ref="A1:I2360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82979,6 +82979,41 @@
         <v>1580000</v>
       </c>
     </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>6036000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2360"/>
+  <dimension ref="A1:I2361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83014,6 +83014,41 @@
         <v>6036000</v>
       </c>
     </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2361" t="n">
+        <v>445000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2361"/>
+  <dimension ref="A1:I2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83049,6 +83049,41 @@
         <v>445000</v>
       </c>
     </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2362" t="n">
+        <v>225200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2362"/>
+  <dimension ref="A1:I2363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83084,6 +83084,41 @@
         <v>225200</v>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2363" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2363" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2363"/>
+  <dimension ref="A1:I2364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83119,6 +83119,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2364" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2364" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2364" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2364" t="n">
+        <v>691000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2364"/>
+  <dimension ref="A1:I2365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83154,6 +83154,41 @@
         <v>691000</v>
       </c>
     </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2365" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I2365" t="n">
+        <v>365900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2365"/>
+  <dimension ref="A1:I2366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83189,6 +83189,41 @@
         <v>365900</v>
       </c>
     </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2366" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G2366" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2366" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I2366" t="n">
+        <v>350000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2366"/>
+  <dimension ref="A1:I2367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83224,6 +83224,41 @@
         <v>350000</v>
       </c>
     </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2367" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2367" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2367" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I2367" t="n">
+        <v>440200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2367"/>
+  <dimension ref="A1:I2368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83259,6 +83259,41 @@
         <v>440200</v>
       </c>
     </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2368" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2368" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2368" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2368" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I2368" t="n">
+        <v>1292100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2368"/>
+  <dimension ref="A1:I2369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83294,6 +83294,41 @@
         <v>1292100</v>
       </c>
     </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2369" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2369" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2369" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2369" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I2369" t="n">
+        <v>762500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2369"/>
+  <dimension ref="A1:I2370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83329,6 +83329,41 @@
         <v>762500</v>
       </c>
     </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2370" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2370" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2370" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2370" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2370" t="n">
+        <v>4817000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2370"/>
+  <dimension ref="A1:I2371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83364,6 +83364,41 @@
         <v>4817000</v>
       </c>
     </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2371" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2371" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2371" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2371" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2371" t="n">
+        <v>29185600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2371"/>
+  <dimension ref="A1:I2372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83399,6 +83399,41 @@
         <v>29185600</v>
       </c>
     </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2372" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2372" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2372" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2372" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2372" t="n">
+        <v>1087100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2372"/>
+  <dimension ref="A1:I2373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83434,6 +83434,41 @@
         <v>1087100</v>
       </c>
     </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2373" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2373" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2373" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2373" t="n">
+        <v>31159100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2373"/>
+  <dimension ref="A1:I2374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83469,6 +83469,41 @@
         <v>31159100</v>
       </c>
     </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2374" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2374" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2374" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2374" t="n">
+        <v>917800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2374"/>
+  <dimension ref="A1:I2375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83504,6 +83504,41 @@
         <v>917800</v>
       </c>
     </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2375" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2375" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2375" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2375" t="n">
+        <v>800700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2375"/>
+  <dimension ref="A1:I2376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83539,6 +83539,41 @@
         <v>800700</v>
       </c>
     </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2376" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2376" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2376" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2376" t="n">
+        <v>2887400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2376"/>
+  <dimension ref="A1:I2377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83574,6 +83574,41 @@
         <v>2887400</v>
       </c>
     </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2377" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2377" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2377" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2377" t="n">
+        <v>663000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2377"/>
+  <dimension ref="A1:I2378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83609,6 +83609,41 @@
         <v>663000</v>
       </c>
     </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2378" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2378" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2378" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2378" t="n">
+        <v>870500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2378"/>
+  <dimension ref="A1:I2379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83644,6 +83644,41 @@
         <v>870500</v>
       </c>
     </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2379" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2379" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2379" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2379" t="n">
+        <v>818400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2379"/>
+  <dimension ref="A1:I2381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83679,6 +83679,76 @@
         <v>818400</v>
       </c>
     </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2380" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2380" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2380" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2380" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2380" t="n">
+        <v>6800100</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2381" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2381" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2381" t="n">
+        <v>5558000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2381"/>
+  <dimension ref="A1:I2382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83749,6 +83749,41 @@
         <v>5558000</v>
       </c>
     </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2382" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2382" t="n">
+        <v>12799500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2382"/>
+  <dimension ref="A1:I2385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83784,6 +83784,111 @@
         <v>12799500</v>
       </c>
     </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2383" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2383" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2383" t="n">
+        <v>916000</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2384" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2384" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2384" t="n">
+        <v>677500</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2385" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2385" t="n">
+        <v>10216400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2385"/>
+  <dimension ref="A1:I2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83889,6 +83889,41 @@
         <v>10216400</v>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2386" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2386" t="n">
+        <v>710600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2386"/>
+  <dimension ref="A1:I2387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83924,6 +83924,41 @@
         <v>710600</v>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2387" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2387" t="n">
+        <v>354400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0154.xlsx
+++ b/data/0154.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2387"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83959,6 +83959,111 @@
         <v>354400</v>
       </c>
     </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2388" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2388" t="n">
+        <v>1130300</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2389" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2389" t="n">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>EAH</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2390" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
